--- a/Pandas_Exercise_DOIT.xlsx
+++ b/Pandas_Exercise_DOIT.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720A753C-839D-4E0A-955D-B6884C86BF54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C09A99F-6A01-4700-B945-9D69BB69A255}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1452" yWindow="-108" windowWidth="21696" windowHeight="13176" activeTab="1" xr2:uid="{71419E0F-CD97-471C-846B-A4984D0E9C1F}"/>
   </bookViews>
   <sheets>
     <sheet name="02" sheetId="1" r:id="rId1"/>
-    <sheet name="개념" sheetId="2" r:id="rId2"/>
+    <sheet name="03" sheetId="3" r:id="rId2"/>
+    <sheet name="개념" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1739,10 +1740,10 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2214,10 +2215,165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD717DF4-6188-4C7D-8E4B-E8AC4344D723}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.59765625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="43.296875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="3"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="103.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="129.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="6"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="3:4" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="3:4" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="3:4" ht="109.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="3:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="7"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="3:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="3:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="3:4" ht="82.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="3:4" ht="138.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="11"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="13"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="41" spans="2:4" ht="268.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:4" ht="208.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="13"/>
+      <c r="C44" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335EE0A3-4002-4F0D-87F3-BCBF2849D905}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
